--- a/tables/MOEAD_table.xlsx
+++ b/tables/MOEAD_table.xlsx
@@ -457,422 +457,422 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02476403963096653</v>
+        <v>0.01069167209379498</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.0372869547325797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01259713123176979</v>
+        <v>0.04745255663410002</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4560055732727051</v>
+        <v>0.381986141204834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01421376039644934</v>
+        <v>0.02127339119872594</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.03254999189805209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02486562906198051</v>
+        <v>0.0121888196132702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4429566860198975</v>
+        <v>0.3778557777404785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01858532465535435</v>
+        <v>0.02576528356047951</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.03175603300925281</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01211846303198097</v>
+        <v>0.01121891276237646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4519608020782471</v>
+        <v>0.3765113353729248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02781527889828258</v>
+        <v>0.01949636500200502</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.03454347723297613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04857297990263954</v>
+        <v>0.04245765094192309</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5069496631622314</v>
+        <v>0.3772344589233398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01986387716482265</v>
+        <v>0.04691801648622292</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.02617216251521361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01353444564208049</v>
+        <v>0.01917952914511</v>
       </c>
       <c r="D6" t="n">
-        <v>0.471397876739502</v>
+        <v>0.3793871402740479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01002736343744105</v>
+        <v>0.02730367639870757</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.02916823787407006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02611023789987384</v>
+        <v>0.05669251942975038</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4619345664978027</v>
+        <v>0.3842530250549316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.009496719642443741</v>
+        <v>0.01773398160067516</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.03768677334106603</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02401571643473038</v>
+        <v>0.0666913069665451</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4981634616851807</v>
+        <v>0.3785107135772705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01986066782010963</v>
+        <v>0.02392694823641245</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.03206737173304788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01164708795753563</v>
+        <v>0.01067648672520487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4818160533905029</v>
+        <v>0.3829910755157471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03299175921563873</v>
+        <v>0.03304428321094764</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.03009435609845209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0741405923768486</v>
+        <v>0.0165740250582973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4541161060333252</v>
+        <v>0.3836929798126221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01631463652553094</v>
+        <v>0.02620527572775193</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.03109785099271723</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04038569353458075</v>
+        <v>0.02763792365160672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4737646579742432</v>
+        <v>0.3846518993377686</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01138335651577078</v>
+        <v>0.01711443782335729</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.03411449273392961</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03136018970267124</v>
+        <v>0.01483227442381828</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4544668197631836</v>
+        <v>0.3858563899993896</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01502556739402347</v>
+        <v>0.0125317949044731</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.03704412583825663</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0362794278808618</v>
+        <v>0.04904642224742189</v>
       </c>
       <c r="D13" t="n">
-        <v>0.459449291229248</v>
+        <v>0.3922336101531982</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.01742118552029683</v>
+        <v>0.01899633518300033</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.03334773433896011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01284772292955843</v>
+        <v>0.03370195861911932</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4414005279541016</v>
+        <v>0.3849399089813232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1096853006264398</v>
+        <v>0.0280372512104873</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.03123521122145675</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03069549700635316</v>
+        <v>0.01120736838416108</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4494428634643555</v>
+        <v>0.3809289932250977</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01654092775428883</v>
+        <v>0.01738917223052302</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.03538211812040266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01404268268206425</v>
+        <v>0.02020143856340696</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4551348686218262</v>
+        <v>0.3808717727661133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.008057336784370546</v>
+        <v>0.02866362290529928</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.03100936911000278</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04443925700313096</v>
+        <v>0.003265307063384607</v>
       </c>
       <c r="D17" t="n">
-        <v>0.46004319190979</v>
+        <v>0.3801298141479492</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01449273180546338</v>
+        <v>0.03736007918107227</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.02913321526530701</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02075353604646657</v>
+        <v>0.009196234754422631</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4389007091522217</v>
+        <v>0.3783292770385742</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.02858508695174168</v>
+        <v>0.01547146351693891</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.03477339513539394</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01052980993423795</v>
+        <v>0.01951156507029049</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4332754611968994</v>
+        <v>0.3832478523254395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.02014350351364054</v>
+        <v>0.01832502868209602</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.03719835573593018</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02190747393741909</v>
+        <v>0.05928124113274942</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4422371387481689</v>
+        <v>0.3847367763519287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.01229255071893348</v>
+        <v>0.04417115428683137</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.02730141300582425</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02047906593605786</v>
+        <v>0.04492356897958827</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4359116554260254</v>
+        <v>0.3816921710968018</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.01019401425172813</v>
+        <v>0.01376238392126133</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.0351786243398307</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03827898134759185</v>
+        <v>0.03001159510984554</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4402284622192383</v>
+        <v>0.3955497741699219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.01677516425826004</v>
+        <v>0.02883326772509076</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.03589634786059319</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01998724371413284</v>
+        <v>0.06951877107777722</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4418942928314209</v>
+        <v>0.3937616348266602</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04053573145574627</v>
+        <v>0.02551299047961685</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.03518540550985796</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07243230201197723</v>
+        <v>0.02551795631479029</v>
       </c>
       <c r="D24" t="n">
-        <v>0.462709903717041</v>
+        <v>0.3801620006561279</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0146970947976693</v>
+        <v>0.01400399763094817</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.03622005137633955</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05754125992230471</v>
+        <v>0.03214405310898259</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4426476955413818</v>
+        <v>0.3932812213897705</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.01357823364851678</v>
+        <v>0.02086578569975024</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.03396169434459988</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01860790234393905</v>
+        <v>0.01418900353739131</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4524683952331543</v>
+        <v>0.3790092468261719</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01394421419237921</v>
+        <v>0.02094942228453112</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.03425530871018753</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02076762560470375</v>
+        <v>0.07226490776536289</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4307727813720703</v>
+        <v>0.3915660381317139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.009720434337753214</v>
+        <v>0.04296377426519212</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.03288023081955586</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02919354735602657</v>
+        <v>0.02169799248690574</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4257266521453857</v>
+        <v>0.4198544025421143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.008553428374277444</v>
+        <v>0.01415273803295335</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.03737665450528491</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02927740092735003</v>
+        <v>0.06717740667384628</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4258484840393066</v>
+        <v>0.4314982891082764</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.02947601735758146</v>
+        <v>0.02444566984301722</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.03206042546191738</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03544835759404711</v>
+        <v>0.009367954715067624</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4228241443634033</v>
+        <v>0.4272780418395996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.01582675354053487</v>
+        <v>0.01919929534852628</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.03356478646068518</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02919945398475286</v>
+        <v>0.01385922602674345</v>
       </c>
       <c r="D31" t="n">
-        <v>0.42331862449646</v>
+        <v>0.4281034469604492</v>
       </c>
     </row>
   </sheetData>

--- a/tables/MOEAD_table.xlsx
+++ b/tables/MOEAD_table.xlsx
@@ -457,422 +457,422 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01069167209379498</v>
+        <v>0.05308709024669598</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0372869547325797</v>
+        <v>0.002990529792292714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04745255663410002</v>
+        <v>0.2087912671829263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381986141204834</v>
+        <v>0.365234375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02127339119872594</v>
+        <v>0.05464645879743663</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03254999189805209</v>
+        <v>0.004084862680496154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0121888196132702</v>
+        <v>0.1121758671826502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3778557777404785</v>
+        <v>0.3636791706085205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02576528356047951</v>
+        <v>0.09253365851962339</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03175603300925281</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01121891276237646</v>
+        <v>0.1259030455382306</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3765113353729248</v>
+        <v>0.3637259006500244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01949636500200502</v>
+        <v>0.0537127311196682</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03454347723297613</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04245765094192309</v>
+        <v>0.1161851623577471</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3772344589233398</v>
+        <v>0.3626224994659424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04691801648622292</v>
+        <v>0.07242220267563064</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02617216251521361</v>
+        <v>0.0003997434387765151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01917952914511</v>
+        <v>0.1712172761439199</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3793871402740479</v>
+        <v>0.368049144744873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02730367639870757</v>
+        <v>0.06072592950391344</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02916823787407006</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05669251942975038</v>
+        <v>0.09818604974913681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3842530250549316</v>
+        <v>0.3643856048583984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01773398160067516</v>
+        <v>0.05358478971457295</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03768677334106603</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0666913069665451</v>
+        <v>0.1206682718194401</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3785107135772705</v>
+        <v>0.3642287254333496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.02392694823641245</v>
+        <v>0.04602571290043157</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03206737173304788</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01067648672520487</v>
+        <v>0.1379945520211441</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3829910755157471</v>
+        <v>0.3648133277893066</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03304428321094764</v>
+        <v>0.05734285380133181</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03009435609845209</v>
+        <v>0.001135276168242775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0165740250582973</v>
+        <v>0.1520732275159915</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3836929798126221</v>
+        <v>0.3647093772888184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02620527572775193</v>
+        <v>0.06363851749805223</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03109785099271723</v>
+        <v>0.003943477839773553</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02763792365160672</v>
+        <v>0.1462646392356106</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3846518993377686</v>
+        <v>0.3642227649688721</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01711443782335729</v>
+        <v>0.03836096125411839</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03411449273392961</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01483227442381828</v>
+        <v>0.1489489408145401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3858563899993896</v>
+        <v>0.3641304969787598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0125317949044731</v>
+        <v>0.2773436441544661</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03704412583825663</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04904642224742189</v>
+        <v>0.01678169565868704</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3922336101531982</v>
+        <v>0.3636536598205566</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.01899633518300033</v>
+        <v>0.03808507697324037</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03334773433896011</v>
+        <v>0.0004177102803279115</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03370195861911932</v>
+        <v>0.1426407984420387</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3849399089813232</v>
+        <v>0.3635549545288086</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0280372512104873</v>
+        <v>0.3178021459702056</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03123521122145675</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01120736838416108</v>
+        <v>0.0001917413695395366</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3809289932250977</v>
+        <v>0.3767373561859131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01738917223052302</v>
+        <v>0.04497570632965606</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03538211812040266</v>
+        <v>0.002379222038562656</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02020143856340696</v>
+        <v>0.1343322648723066</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3808717727661133</v>
+        <v>0.3643276691436768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.02866362290529928</v>
+        <v>0.07097758206028229</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03100936911000278</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003265307063384607</v>
+        <v>0.09048629384908193</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3801298141479492</v>
+        <v>0.3635985851287842</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.03736007918107227</v>
+        <v>0.05523432997677882</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02913321526530701</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009196234754422631</v>
+        <v>0.1164340718464494</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3783292770385742</v>
+        <v>0.3659904003143311</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.01547146351693891</v>
+        <v>0.08585627821345433</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03477339513539394</v>
+        <v>0.005454425090060815</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01951156507029049</v>
+        <v>0.141676702078881</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3832478523254395</v>
+        <v>0.3667397499084473</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.01832502868209602</v>
+        <v>0.06531586964168153</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03719835573593018</v>
+        <v>0.003529288223310588</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05928124113274942</v>
+        <v>0.1736818704002951</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3847367763519287</v>
+        <v>0.3696017265319824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.04417115428683137</v>
+        <v>0.05776372111179612</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02730141300582425</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04492356897958827</v>
+        <v>0.1255572174685674</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3816921710968018</v>
+        <v>0.3660092353820801</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.01376238392126133</v>
+        <v>0.0437743362252984</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0351786243398307</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03001159510984554</v>
+        <v>0.1345981517320795</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3955497741699219</v>
+        <v>0.366079568862915</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.02883326772509076</v>
+        <v>0.1192299582054296</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03589634786059319</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06951877107777722</v>
+        <v>0.07542901710516864</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3937616348266602</v>
+        <v>0.3663144111633301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.02551299047961685</v>
+        <v>0.04204371725471256</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03518540550985796</v>
+        <v>0.002210274154141961</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02551795631479029</v>
+        <v>0.1516949340062402</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3801620006561279</v>
+        <v>0.3692953586578369</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.01400399763094817</v>
+        <v>0.04272512131500407</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03622005137633955</v>
+        <v>0.003310775962040706</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03214405310898259</v>
+        <v>0.1774512803846784</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3932812213897705</v>
+        <v>0.4143884181976318</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.02086578569975024</v>
+        <v>0.09222148242635407</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03396169434459988</v>
+        <v>0.003321154214259567</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01418900353739131</v>
+        <v>0.1035700171011611</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3790092468261719</v>
+        <v>0.4083378314971924</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.02094942228453112</v>
+        <v>0.1156373649707791</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03425530871018753</v>
+        <v>0.004989062782519075</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07226490776536289</v>
+        <v>0.278532079907025</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3915660381317139</v>
+        <v>0.3865456581115723</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.04296377426519212</v>
+        <v>0.04289010743687445</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03288023081955586</v>
+        <v>0.002737992597043489</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02169799248690574</v>
+        <v>0.1476957430274692</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4198544025421143</v>
+        <v>0.3872485160827637</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.01415273803295335</v>
+        <v>0.05004427882948287</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03737665450528491</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06717740667384628</v>
+        <v>0.1421194310070694</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4314982891082764</v>
+        <v>0.3681168556213379</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.02444566984301722</v>
+        <v>0.08512360294331807</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03206042546191738</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.009367954715067624</v>
+        <v>0.08172132791632289</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4272780418395996</v>
+        <v>0.3669037818908691</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.01919929534852628</v>
+        <v>0.1061222847837969</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03356478646068518</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01385922602674345</v>
+        <v>0.07095603971559439</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4281034469604492</v>
+        <v>0.3717825412750244</v>
       </c>
     </row>
   </sheetData>

--- a/tables/MOEAD_table.xlsx
+++ b/tables/MOEAD_table.xlsx
@@ -457,422 +457,422 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05308709024669598</v>
+        <v>0.06641646633706576</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002990529792292714</v>
+        <v>0.001320545540747117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2087912671829263</v>
+        <v>0.1934468286529431</v>
       </c>
       <c r="D2" t="n">
-        <v>0.365234375</v>
+        <v>0.3338541984558105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05464645879743663</v>
+        <v>0.07566955591425288</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004084862680496154</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1121758671826502</v>
+        <v>0.1629275474696073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3636791706085205</v>
+        <v>0.3326709270477295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.09253365851962339</v>
+        <v>0.053731164422579</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1259030455382306</v>
+        <v>0.09503898669296441</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3637259006500244</v>
+        <v>0.3329222202301025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0537127311196682</v>
+        <v>0.03273171441953979</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.00452654628805547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1161851623577471</v>
+        <v>0.15868895976605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3626224994659424</v>
+        <v>0.3330183029174805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.07242220267563064</v>
+        <v>0.04403905518789689</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0003997434387765151</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1712172761439199</v>
+        <v>0.1463931834598121</v>
       </c>
       <c r="D6" t="n">
-        <v>0.368049144744873</v>
+        <v>0.3338248729705811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.06072592950391344</v>
+        <v>0.1189831085441079</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09818604974913681</v>
+        <v>0.2545948591837429</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3643856048583984</v>
+        <v>0.3344364166259766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.05358478971457295</v>
+        <v>0.05067453038150444</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.00580384747007031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1206682718194401</v>
+        <v>0.167279156781178</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3642287254333496</v>
+        <v>0.3340375423431396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.04602571290043157</v>
+        <v>0.1323378828590918</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1379945520211441</v>
+        <v>0.06915130472971491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3648133277893066</v>
+        <v>0.3332014083862305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.05734285380133181</v>
+        <v>0.04718558449313664</v>
       </c>
       <c r="B10" t="n">
-        <v>0.001135276168242775</v>
+        <v>0.001372939254610646</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1520732275159915</v>
+        <v>0.1055820535218937</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3647093772888184</v>
+        <v>0.3338701725006104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.06363851749805223</v>
+        <v>0.2235036251914394</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003943477839773553</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1462646392356106</v>
+        <v>0.02374347479594182</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3642227649688721</v>
+        <v>0.333017110824585</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.03836096125411839</v>
+        <v>0.1168158470561715</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1489489408145401</v>
+        <v>0.05882374786513738</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3641304969787598</v>
+        <v>0.3333916664123535</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2773436441544661</v>
+        <v>0.0351585671216375</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.003387325998466339</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01678169565868704</v>
+        <v>0.1510320862587832</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3636536598205566</v>
+        <v>0.3335163593292236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03808507697324037</v>
+        <v>0.05918726788331171</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0004177102803279115</v>
+        <v>0.003456433093963732</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1426407984420387</v>
+        <v>0.1184913468705624</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3635549545288086</v>
+        <v>0.3330478668212891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3178021459702056</v>
+        <v>0.03563754278092289</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001917413695395366</v>
+        <v>0.1393948261237047</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3767373561859131</v>
+        <v>0.332921028137207</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.04497570632965606</v>
+        <v>0.03009236239930143</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002379222038562656</v>
+        <v>0.001613098152698891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1343322648723066</v>
+        <v>0.1551597451293064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3643276691436768</v>
+        <v>0.3329606056213379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.07097758206028229</v>
+        <v>0.03937433136553384</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09048629384908193</v>
+        <v>0.1463255833919173</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3635985851287842</v>
+        <v>0.3344697952270508</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.05523432997677882</v>
+        <v>0.04730445838747043</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.001843578046225498</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1164340718464494</v>
+        <v>0.1730552688073628</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3659904003143311</v>
+        <v>0.3350203037261963</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.08585627821345433</v>
+        <v>0.2899461205953303</v>
       </c>
       <c r="B19" t="n">
-        <v>0.005454425090060815</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.141676702078881</v>
+        <v>0.001124056310316813</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3667397499084473</v>
+        <v>0.3337235450744629</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.06531586964168153</v>
+        <v>0.07243358085806394</v>
       </c>
       <c r="B20" t="n">
-        <v>0.003529288223310588</v>
+        <v>0.0007518283891021732</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1736818704002951</v>
+        <v>0.0804441490107881</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3696017265319824</v>
+        <v>0.3379464149475098</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05776372111179612</v>
+        <v>0.2774793542993332</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1255572174685674</v>
+        <v>0.003265120926133719</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3660092353820801</v>
+        <v>0.3322422504425049</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0437743362252984</v>
+        <v>0.05501996688603954</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.004626109154964995</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1345981517320795</v>
+        <v>0.2051696878096815</v>
       </c>
       <c r="D22" t="n">
-        <v>0.366079568862915</v>
+        <v>0.333690881729126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1192299582054296</v>
+        <v>0.05088805714160157</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.00167869102552263</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07542901710516864</v>
+        <v>0.1157246997805482</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3663144111633301</v>
+        <v>0.3476579189300537</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04204371725471256</v>
+        <v>0.02885900946529159</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002210274154141961</v>
+        <v>0.001964542957988539</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1516949340062402</v>
+        <v>0.1487506727203343</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3692953586578369</v>
+        <v>0.33258056640625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.04272512131500407</v>
+        <v>0.07972977869319593</v>
       </c>
       <c r="B25" t="n">
-        <v>0.003310775962040706</v>
+        <v>0.00149593550770005</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1774512803846784</v>
+        <v>0.2664904569686521</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4143884181976318</v>
+        <v>0.3328390121459961</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.09222148242635407</v>
+        <v>0.249736269136203</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003321154214259567</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1035700171011611</v>
+        <v>0.01823602322486379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4083378314971924</v>
+        <v>0.3325912952423096</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1156373649707791</v>
+        <v>0.2096250920981563</v>
       </c>
       <c r="B27" t="n">
-        <v>0.004989062782519075</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.278532079907025</v>
+        <v>0.02392297451376261</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3865456581115723</v>
+        <v>0.3329896926879883</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.04289010743687445</v>
+        <v>0.04719558643610706</v>
       </c>
       <c r="B28" t="n">
-        <v>0.002737992597043489</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1476957430274692</v>
+        <v>0.1086740099183975</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3872485160827637</v>
+        <v>0.3326716423034668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.05004427882948287</v>
+        <v>0.03705650330106836</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1421194310070694</v>
+        <v>0.1381691242456549</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3681168556213379</v>
+        <v>0.339202880859375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.08512360294331807</v>
+        <v>0.2747726984341302</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08172132791632289</v>
+        <v>0.05134319455587457</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3669037818908691</v>
+        <v>0.333019495010376</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1061222847837969</v>
+        <v>0.07060376061687039</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.002846027793914542</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07095603971559439</v>
+        <v>0.170382544651421</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3717825412750244</v>
+        <v>0.3329606056213379</v>
       </c>
     </row>
   </sheetData>

--- a/tables/MOEAD_table.xlsx
+++ b/tables/MOEAD_table.xlsx
@@ -457,422 +457,422 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05308709024669598</v>
+        <v>0.1287264433497544</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002990529792292714</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2087912671829263</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.365234375</v>
+        <v>0.3607609272003174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05464645879743663</v>
+        <v>0.1151845161926338</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004084862680496154</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1121758671826502</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3636791706085205</v>
+        <v>0.3584516048431396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.09253365851962339</v>
+        <v>0.1489386327469852</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1259030455382306</v>
+        <v>0.01098003922309498</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3637259006500244</v>
+        <v>0.3590376377105713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0537127311196682</v>
+        <v>0.1106708935123458</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1161851623577471</v>
+        <v>0.0003293302105587121</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3626224994659424</v>
+        <v>0.3605985641479492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.07242220267563064</v>
+        <v>0.1435695917756829</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0003997434387765151</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1712172761439199</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.368049144744873</v>
+        <v>0.3601899147033691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.06072592950391344</v>
+        <v>0.1101691978726161</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09818604974913681</v>
+        <v>0.0005302738697466417</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3643856048583984</v>
+        <v>0.3611910343170166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.05358478971457295</v>
+        <v>0.1105233560281523</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1206682718194401</v>
+        <v>0.0002881821042759881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3642287254333496</v>
+        <v>0.3595569133758545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.04602571290043157</v>
+        <v>0.1110487017048632</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1379945520211441</v>
+        <v>3.488607519185036e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3648133277893066</v>
+        <v>0.3603484630584717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.05734285380133181</v>
+        <v>0.1118023230068679</v>
       </c>
       <c r="B10" t="n">
-        <v>0.001135276168242775</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1520732275159915</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3647093772888184</v>
+        <v>0.3621325492858887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.06363851749805223</v>
+        <v>0.1372301836281503</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003943477839773553</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1462646392356106</v>
+        <v>0.3625612521316625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3642227649688721</v>
+        <v>0.3626055717468262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.03836096125411839</v>
+        <v>0.1107743542188344</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1489489408145401</v>
+        <v>0.006896462973884907</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3641304969787598</v>
+        <v>0.3623168468475342</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2773436441544661</v>
+        <v>0.1115770390604805</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01678169565868704</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3636536598205566</v>
+        <v>0.361931324005127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03808507697324037</v>
+        <v>0.1120056719116083</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0004177102803279115</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1426407984420387</v>
+        <v>0.0002318655406656927</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3635549545288086</v>
+        <v>0.3619184494018555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3178021459702056</v>
+        <v>0.1105970631255904</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001917413695395366</v>
+        <v>0.0003306106467692855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3767373561859131</v>
+        <v>0.3609542846679688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.04497570632965606</v>
+        <v>0.1102417611360866</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002379222038562656</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1343322648723066</v>
+        <v>0.0008026077552807693</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3643276691436768</v>
+        <v>0.3603253364562988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.07097758206028229</v>
+        <v>0.1162409781149437</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09048629384908193</v>
+        <v>0.0001751739282458372</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3635985851287842</v>
+        <v>0.3611495494842529</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.05523432997677882</v>
+        <v>0.1102613610485819</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1164340718464494</v>
+        <v>0.07297172728204064</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3659904003143311</v>
+        <v>0.3614780902862549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.08585627821345433</v>
+        <v>0.1101399056921997</v>
       </c>
       <c r="B19" t="n">
-        <v>0.005454425090060815</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.141676702078881</v>
+        <v>0.0005452707874968461</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3667397499084473</v>
+        <v>0.360985279083252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.06531586964168153</v>
+        <v>0.1119114609999469</v>
       </c>
       <c r="B20" t="n">
-        <v>0.003529288223310588</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1736818704002951</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3696017265319824</v>
+        <v>0.3619794845581055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05776372111179612</v>
+        <v>0.1146038136058956</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1255572174685674</v>
+        <v>0.001309996918458927</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3660092353820801</v>
+        <v>0.3622157573699951</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0437743362252984</v>
+        <v>0.1367063341384606</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1345981517320795</v>
+        <v>0.001527843545093271</v>
       </c>
       <c r="D22" t="n">
-        <v>0.366079568862915</v>
+        <v>0.3618683815002441</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1192299582054296</v>
+        <v>0.1117332783463525</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07542901710516864</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3663144111633301</v>
+        <v>0.3627898693084717</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04204371725471256</v>
+        <v>0.1105225778416748</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002210274154141961</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1516949340062402</v>
+        <v>0.0001992085585601558</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3692953586578369</v>
+        <v>0.3757972717285156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.04272512131500407</v>
+        <v>0.1631372182843999</v>
       </c>
       <c r="B25" t="n">
-        <v>0.003310775962040706</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1774512803846784</v>
+        <v>0.004865814401471088</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4143884181976318</v>
+        <v>0.3623182773590088</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.09222148242635407</v>
+        <v>0.1178170416686079</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003321154214259567</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1035700171011611</v>
+        <v>0.0003296444142355278</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4083378314971924</v>
+        <v>0.3619718551635742</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1156373649707791</v>
+        <v>0.01939842458397123</v>
       </c>
       <c r="B27" t="n">
-        <v>0.004989062782519075</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.278532079907025</v>
+        <v>0.1952751945828161</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3865456581115723</v>
+        <v>0.3620097637176514</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.04289010743687445</v>
+        <v>0.1146589748066521</v>
       </c>
       <c r="B28" t="n">
-        <v>0.002737992597043489</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1476957430274692</v>
+        <v>0.000231857153844419</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3872485160827637</v>
+        <v>0.3609552383422852</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.05004427882948287</v>
+        <v>0.1105874943416025</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1421194310070694</v>
+        <v>0.0003253237854321956</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3681168556213379</v>
+        <v>0.3616671562194824</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.08512360294331807</v>
+        <v>0.1113740928868144</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08172132791632289</v>
+        <v>1.042835765699047e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3669037818908691</v>
+        <v>0.3616330623626709</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1061222847837969</v>
+        <v>0.1105790636061404</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07095603971559439</v>
+        <v>0.0003586935057055187</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3717825412750244</v>
+        <v>0.3615269660949707</v>
       </c>
     </row>
   </sheetData>
